--- a/document/krf调试统计测试 (自动保存的) (自动保存的) (自动保存的).xlsx
+++ b/document/krf调试统计测试 (自动保存的) (自动保存的) (自动保存的).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HiTE\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="463">
   <si>
     <t>模拟数据（2-300次重复）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3097,7 +3097,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.观察N_919-LTR-lLTRStart_1-lLTREnd_571-rLTRStart_7251-rLTREnd_7819和N_919-ILTR是如何被一步步过滤掉的。</t>
+    <t>1.观察N_919-LTR-lLTRStart_1-lLTREnd_571-rLTRStart_7251-rLTREnd_7819和N_919-ILTR是如何被一步步过滤掉的。
+2.在果蝇数据集上，LTR_finder_candidate，能找到60条perfect序列。我们的confident_ltr能找到54条perfect序列。LTR_harvest能找到102个perfect。因此，我决定将LTR_harvest合并。
+3.在HiTE的各个模块单独测试时，发现TIR中很多LTR元素，过滤掉这些LTR元素并不会减少Perfect数量。但是一旦我根据起始5bp==结束5bp过滤时，Perfect数量从接近400骤减至141.也就是说我们的结果中至少包含了200多条终端5bp不等的序列，而从repbase中的分析得知，至少有900条序列的终端5bp是相等的。也就是说至少有700多条终端5bp相等的序列我们没有识别出。
+MuDR-N124_OS：对应N_152341，查看原因发现是N_152341搜索到的TIR和TSD不准，主要是itrsearch找终端重复不可靠，很多不是真实的终端重复它也认为是，最后导致实际的TIR+TSD结构没找到。我现在考虑以开始和结束5bp是否一致作为是否是TIR结构的标准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现在的confident_tir只有370个perfect，看哪些TIR被我们漏掉了。
+SPMLIKE-B_OS， N_87197；ENSPM2B_OS，N_57871；这些实际上都找到，但是RM2的比对导致分段比对，所以被认为不是perfect序列。
+MuDR-85_OS，longest_repeat.fa:N_72973，longest_repeat.rename.fa:N_13049.
+我发现实际上在longest_repeats.fa中经常很好包含repbase序列了，但是在get_tir_tsd后，往往会选择另外一条长的拷贝来做代表，导致RM2比对把它当做非perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.很多假阳性的TIR经过查验，发现都是能高同源性的比对到LTR区域，LTR不一定是连续的。
+N_10831
+2.MUDR1_OS，N_117446。
+3.找到那些是假阳性序列，看他们的拷贝有什么特点，发现flanked_align中，没有考虑边界没有包括的情况。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4627,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ837"/>
+  <dimension ref="A1:BL837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG791" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ792" sqref="BJ792"/>
+    <sheetView tabSelected="1" topLeftCell="BH791" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BK792" sqref="BK792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4693,6 +4710,8 @@
     <col min="60" max="60" width="63" customWidth="1"/>
     <col min="61" max="61" width="47.125" customWidth="1"/>
     <col min="62" max="62" width="67" customWidth="1"/>
+    <col min="63" max="63" width="36.25" customWidth="1"/>
+    <col min="64" max="64" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -6323,21 +6342,21 @@
         <v>358</v>
       </c>
     </row>
-    <row r="785" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
     </row>
-    <row r="787" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B787" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="788" spans="1:62" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:64" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B788" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="789" spans="1:62" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:64" ht="185.25" x14ac:dyDescent="0.2">
       <c r="B789" s="4" t="s">
         <v>346</v>
       </c>
@@ -6363,7 +6382,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="790" spans="1:62" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:64" ht="42.75" x14ac:dyDescent="0.2">
       <c r="I790" s="4" t="s">
         <v>387</v>
       </c>
@@ -6371,7 +6390,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="792" spans="1:62" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:64" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>360</v>
       </c>
@@ -6556,8 +6575,14 @@
       <c r="BJ792" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="793" spans="1:62" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="BK792" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="BL792" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="793" spans="1:64" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B793" s="4" t="s">
         <v>361</v>
       </c>
@@ -6607,12 +6632,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="794" spans="1:62" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:64" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B794" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="797" spans="1:62" ht="114" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:64" ht="114" x14ac:dyDescent="0.2">
       <c r="B797" t="s">
         <v>356</v>
       </c>
@@ -6632,7 +6657,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="798" spans="1:62" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:64" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B798" s="4" t="s">
         <v>362</v>
       </c>
@@ -6652,7 +6677,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="799" spans="1:62" ht="171" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:64" ht="171" x14ac:dyDescent="0.2">
       <c r="F799" s="4" t="s">
         <v>378</v>
       </c>
